--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fege9\Desktop\Studentischer Mitarbeiter\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{055FC2FB-AD63-4501-93B2-3324A79AB1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEF63F2-19D5-4B15-A35E-CBFF6F717602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8356BA88-B83D-4500-8D6A-3DEAC58D478E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="78">
   <si>
     <t>Lauf</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>Zeilen ohne Differenz werden ignoriert</t>
+  </si>
+  <si>
+    <t>Iterations GB2</t>
+  </si>
+  <si>
+    <t>Iterations GB1</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,27 @@
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1764,7 +1790,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="M22" sqref="M22:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3606,42 +3632,42 @@
     <mergeCell ref="I19:J19"/>
   </mergeCells>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3651,10 +3677,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4EBCB1-8165-4FC3-968F-73EE19C88AAF}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4805,7 +4831,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
         <v>73</v>
@@ -5033,8 +5059,240 @@
       </c>
       <c r="J60" s="18"/>
     </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" thickBot="1">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" thickBot="1">
+      <c r="A64">
+        <v>74</v>
+      </c>
+      <c r="B64" s="5">
+        <v>74</v>
+      </c>
+      <c r="C64">
+        <f>ABS(A64-B64)</f>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f>SIGN(A64-B64)</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>IF(C64 &gt; 0,(_xlfn.RANK.AVG(C64,$C$64:$C$68,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>IF(D64 &gt; 0, E64, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f>IF(D64 &lt; 0, E64, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>118</v>
+      </c>
+      <c r="B65" s="5">
+        <v>43</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:C68" si="30">ABS(A65-B65)</f>
+        <v>75</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:D68" si="31">SIGN(A65-B65)</f>
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65:E68" si="32">IF(C65 &gt; 0,(_xlfn.RANK.AVG(C65,$C$64:$C$68,1)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:F68" si="33">IF(D65 &gt; 0, E65, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65:G67" si="34">IF(D65 &lt; 0, E65, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J65" s="8">
+        <f>COUNT(C65:C68)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>75</v>
+      </c>
+      <c r="B66" s="5">
+        <v>75</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J66" s="10">
+        <f>MIN(F69:G69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>62</v>
+      </c>
+      <c r="B67" s="5">
+        <v>48</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J67" s="10">
+        <f>(J65*(J65+1))/4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>75</v>
+      </c>
+      <c r="B68" s="5">
+        <v>74</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <f>IF(D68 &lt; 0, E68, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" s="10">
+        <f>SQRT((J65*(J65+1)*(2*J65+1))/24)</f>
+        <v>2.7386127875258306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="F69">
+        <f>SUM(F64:F68)</f>
+        <v>12</v>
+      </c>
+      <c r="G69">
+        <f>SUM(G64:G68)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="13">
+        <f>(J66-J67)/J68</f>
+        <v>-1.8257418583505538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" thickBot="1">
+      <c r="I70" s="17" t="str">
+        <f>IF(ABS(J69)&gt;1.65,"Signifikanter Unterschied", "Kein Signifikanter Unterschied")</f>
+        <v>Signifikanter Unterschied</v>
+      </c>
+      <c r="J70" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I70:J70"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I50:J50"/>
@@ -5049,6 +5307,14 @@
     <mergeCell ref="I40:J40"/>
   </mergeCells>
   <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Kein Signifikanter Unterschied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"Signifikanter Unterschied"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
@@ -5056,7 +5322,7 @@
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="I30">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
@@ -5064,7 +5330,7 @@
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="I40">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
@@ -5072,7 +5338,7 @@
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I50">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
@@ -5080,7 +5346,7 @@
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+  <conditionalFormatting sqref="I60">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
@@ -5088,7 +5354,7 @@
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I70">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fege9\Desktop\Studentischer Mitarbeiter\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEF63F2-19D5-4B15-A35E-CBFF6F717602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DBBC37-5BDD-4FF4-B281-A0C7B168AE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8356BA88-B83D-4500-8D6A-3DEAC58D478E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8356BA88-B83D-4500-8D6A-3DEAC58D478E}"/>
   </bookViews>
   <sheets>
     <sheet name="QA1 DQM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="88">
   <si>
     <t>Lauf</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Louvain Time in Mikrosekunden</t>
   </si>
   <si>
-    <t>Louvain-Time in Millisekunden</t>
-  </si>
-  <si>
     <t>LFR1000</t>
   </si>
   <si>
@@ -270,6 +267,39 @@
   </si>
   <si>
     <t>Iterations GB1</t>
+  </si>
+  <si>
+    <t>Varianz Modularity</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>LFR496</t>
+  </si>
+  <si>
+    <t>PP496</t>
+  </si>
+  <si>
+    <t>LFR747</t>
+  </si>
+  <si>
+    <t>PP747</t>
+  </si>
+  <si>
+    <t>LFR246</t>
+  </si>
+  <si>
+    <t>PP246</t>
+  </si>
+  <si>
+    <t>Louvain-Time in Sekunden</t>
+  </si>
+  <si>
+    <t>PP1500</t>
+  </si>
+  <si>
+    <t>LFR1500</t>
   </si>
 </sst>
 </file>
@@ -525,7 +555,107 @@
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1076,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E68F19-C76F-4D63-8654-74D3150A76D4}">
-  <dimension ref="B1:L38"/>
+  <dimension ref="B1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1124,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -1156,7 +1286,7 @@
         <v>0.33412479474711998</v>
       </c>
       <c r="L4" s="2">
-        <v>147.14503288269</v>
+        <v>2.9558181762695299E-2</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -1188,7 +1318,7 @@
         <v>0.33412479474711998</v>
       </c>
       <c r="L5">
-        <v>69.005966186523395</v>
+        <v>5.0028800964355399E-2</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -1220,7 +1350,7 @@
         <v>0.33412479474711998</v>
       </c>
       <c r="L6">
-        <v>78.130483627319293</v>
+        <v>4.4015407562255797E-2</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -1252,7 +1382,7 @@
         <v>0.33412479474711998</v>
       </c>
       <c r="L7">
-        <v>81.019878387451101</v>
+        <v>3.6688327789306599E-2</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -1284,7 +1414,7 @@
         <v>0.33412479474711998</v>
       </c>
       <c r="L8">
-        <v>62.4945163726806</v>
+        <v>6.0011625289916902E-2</v>
       </c>
     </row>
     <row r="10" spans="2:12">
@@ -1303,8 +1433,8 @@
         <v>0.40963182117028224</v>
       </c>
       <c r="F10">
-        <f>(F4+F5+F6+F7+F8)/5</f>
-        <v>36998.6</v>
+        <f>(F5+F6+F7+F8)/5</f>
+        <v>11599.4</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>6</v>
@@ -1320,8 +1450,8 @@
         <v>0.33412479474711998</v>
       </c>
       <c r="L10">
-        <f>(L4+L5+L6+L7+L8)/5</f>
-        <v>87.55917549133288</v>
+        <f>(L5+L6+L7+L8)/5</f>
+        <v>3.8148832321166941E-2</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -1352,8 +1482,46 @@
       <c r="K11">
         <v>0.33412479474711998</v>
       </c>
-      <c r="L11">
-        <v>62.4945163726806</v>
+      <c r="L11" s="2">
+        <v>2.9558181762695299E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5030972</v>
+      </c>
+      <c r="E12">
+        <v>0.39686061801446398</v>
+      </c>
+      <c r="F12">
+        <v>15002</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.33412479474711998</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5389.9679999999998</v>
+      </c>
+      <c r="K12">
+        <v>0.33412479474711998</v>
+      </c>
+      <c r="L12">
+        <v>6.0011625289916902E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="E13">
+        <f>_xlfn.VAR.P(E4:E8)</f>
+        <v>1.0001497768907294E-4</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -1407,10 +1575,10 @@
         <v>5354068</v>
       </c>
       <c r="E17">
-        <v>0.14222525333939501</v>
+        <v>0.142869227960678</v>
       </c>
       <c r="F17" s="2">
-        <v>301981.44912719697</v>
+        <v>9.1363906860351493E-2</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1422,10 +1590,10 @@
         <v>354.47828700000002</v>
       </c>
       <c r="K17">
-        <v>0.18601815293085999</v>
+        <v>0.179092357041815</v>
       </c>
       <c r="L17">
-        <v>2.7935996055603001</v>
+        <v>1.2881882190704299</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -1439,10 +1607,10 @@
         <v>5342177</v>
       </c>
       <c r="E18">
-        <v>0.13924208292861001</v>
+        <v>0.13582587609619601</v>
       </c>
       <c r="F18" s="2">
-        <v>211986.541748046</v>
+        <v>8.4004402160644503E-2</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -1454,10 +1622,10 @@
         <v>353.81368900000001</v>
       </c>
       <c r="K18">
-        <v>0.182707904795158</v>
+        <v>0.181036439217901</v>
       </c>
       <c r="L18" s="2">
-        <v>3.8977599143981898</v>
+        <v>1.3356349468231199</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -1471,10 +1639,10 @@
         <v>5374785</v>
       </c>
       <c r="E19">
-        <v>0.13784115568231101</v>
+        <v>0.14158720317440601</v>
       </c>
       <c r="F19" s="2">
-        <v>151984.930038452</v>
+        <v>5.6028366088867097E-2</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1486,10 +1654,10 @@
         <v>354.558877</v>
       </c>
       <c r="K19">
-        <v>0.179079684619802</v>
+        <v>0.181442397658093</v>
       </c>
       <c r="L19" s="2">
-        <v>3.0088050365447998</v>
+        <v>1.50900554656982</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -1503,10 +1671,10 @@
         <v>5348293</v>
       </c>
       <c r="E20">
-        <v>0.13908928706746301</v>
+        <v>0.13769979539959001</v>
       </c>
       <c r="F20" s="2">
-        <v>181990.14663696199</v>
+        <v>6.2680244445800698E-2</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -1518,10 +1686,10 @@
         <v>354.24530600000003</v>
       </c>
       <c r="K20">
-        <v>0.179599264676887</v>
+        <v>0.186726923107256</v>
       </c>
       <c r="L20" s="2">
-        <v>2.8238537311553902</v>
+        <v>2.0373661518096902</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -1535,10 +1703,10 @@
         <v>5343220</v>
       </c>
       <c r="E21">
-        <v>0.138744841934128</v>
+        <v>0.13778976446841701</v>
       </c>
       <c r="F21" s="2">
-        <v>155990.36216735799</v>
+        <v>8.0016374588012695E-2</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -1550,10 +1718,10 @@
         <v>353.84912000000003</v>
       </c>
       <c r="K21">
-        <v>0.18094859621110701</v>
+        <v>0.180560357652673</v>
       </c>
       <c r="L21" s="2">
-        <v>4.0427505970001203</v>
+        <v>1.2947928905487001</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -1570,11 +1738,11 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.13942852419038143</v>
+        <v>0.1391543734198574</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>200786.68594360299</v>
+        <v>7.4818658828735299E-2</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>6</v>
@@ -1589,11 +1757,11 @@
       </c>
       <c r="K23">
         <f>(K17+K18+K19+K20+K21)/5</f>
-        <v>0.18167072064676282</v>
+        <v>0.1817716949355476</v>
       </c>
       <c r="L23">
         <f>(L17+L18+L19+L20+L21)/5</f>
-        <v>3.31335377693176</v>
+        <v>1.492997550964352</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -1607,10 +1775,10 @@
         <v>5342177</v>
       </c>
       <c r="E24">
-        <v>0.14222525333939501</v>
+        <v>0.142869227960678</v>
       </c>
       <c r="F24" s="2">
-        <v>151984.930038452</v>
+        <v>5.6028366088867097E-2</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>7</v>
@@ -1622,15 +1790,47 @@
         <v>353.81368900000001</v>
       </c>
       <c r="K24">
-        <v>0.18601815293085999</v>
+        <v>0.186726923107256</v>
       </c>
       <c r="L24">
-        <v>2.7935996055603001</v>
+        <v>1.2881882190704299</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.14101404647253701</v>
+      </c>
+      <c r="D25">
+        <v>5354068</v>
+      </c>
+      <c r="E25">
+        <v>0.13582587609619601</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9.1363906860351493E-2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25">
+        <v>9.8952290033919699E-2</v>
+      </c>
+      <c r="J25" s="3">
+        <v>354.558877</v>
+      </c>
+      <c r="K25">
+        <v>0.179092357041815</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2.0373661518096902</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -1647,7 +1847,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>3</v>
@@ -1664,10 +1864,10 @@
         <v>354.26137699999998</v>
       </c>
       <c r="E31">
-        <v>0.36034064615088202</v>
+        <v>0.35983385798415102</v>
       </c>
       <c r="F31">
-        <v>1.8859000205993599</v>
+        <v>0.87107014656066895</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -1681,13 +1881,13 @@
         <v>354.677549</v>
       </c>
       <c r="E32">
-        <v>0.36013733980215201</v>
+        <v>0.36059982666867502</v>
       </c>
       <c r="F32">
-        <v>1.92988061904907</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
+        <v>0.63267493247985795</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="4">
         <v>3</v>
       </c>
@@ -1698,13 +1898,13 @@
         <v>354.12483500000002</v>
       </c>
       <c r="E33">
-        <v>0.35948219651199997</v>
+        <v>0.36012548084561002</v>
       </c>
       <c r="F33" s="2">
-        <v>2.0448634624481201</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
+        <v>1.1019690036773599</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="4">
         <v>4</v>
       </c>
@@ -1715,13 +1915,13 @@
         <v>354.70951300000002</v>
       </c>
       <c r="E34">
-        <v>0.36046012134426603</v>
+        <v>0.36029969580818699</v>
       </c>
       <c r="F34">
-        <v>1.78889036178588</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
+        <v>0.810688495635986</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="4">
         <v>5</v>
       </c>
@@ -1732,16 +1932,16 @@
         <v>354.771323</v>
       </c>
       <c r="E35">
-        <v>0.35914419759267502</v>
+        <v>0.35976463720257701</v>
       </c>
       <c r="F35">
-        <v>2.32085680961608</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
+        <v>0.88592648506164495</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:13">
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -1755,14 +1955,14 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>0.35991290028039502</v>
+        <v>0.36012469970184002</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>1.994078254699702</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
+        <v>0.86046581268310351</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1976,1272 @@
         <v>0.36046012134426603</v>
       </c>
       <c r="F38">
-        <v>1.78889036178588</v>
+        <v>0.63267493247985795</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39">
+        <v>0.34487984563444701</v>
+      </c>
+      <c r="D39">
+        <v>354.771323</v>
+      </c>
+      <c r="E39">
+        <v>0.35914419759267502</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.1019690036773599</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="D45" s="3">
+        <v>176.15236899999999</v>
+      </c>
+      <c r="E45">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="F45">
+        <v>0.238153</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.27717193441276999</v>
+      </c>
+      <c r="K45">
+        <v>174.65281899999999</v>
+      </c>
+      <c r="L45">
+        <v>0.28180902331447599</v>
+      </c>
+      <c r="M45">
+        <v>0.71456456184387196</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="4">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="D46">
+        <v>176.125281</v>
+      </c>
+      <c r="E46">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="F46">
+        <v>0.250237226486206</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0.27717193441276999</v>
+      </c>
+      <c r="K46">
+        <v>174.654673</v>
+      </c>
+      <c r="L46">
+        <v>0.28195501515506399</v>
+      </c>
+      <c r="M46">
+        <v>0.43645334243774397</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="4">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="D47" s="3">
+        <v>176.18450999999999</v>
+      </c>
+      <c r="E47">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.246904611587524</v>
+      </c>
+      <c r="I47" s="4">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>0.27717193441276999</v>
+      </c>
+      <c r="K47" s="3">
+        <v>174.69269199999999</v>
+      </c>
+      <c r="L47">
+        <v>0.2823769694728</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.3970627784729</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="4">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="D48">
+        <v>176.19539499999999</v>
+      </c>
+      <c r="E48">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="F48">
+        <v>0.39051985740661599</v>
+      </c>
+      <c r="I48" s="4">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>0.27717193441276999</v>
+      </c>
+      <c r="K48">
+        <v>174.68050099999999</v>
+      </c>
+      <c r="L48">
+        <v>0.280695162915646</v>
+      </c>
+      <c r="M48">
+        <v>0.52101087570190396</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="4">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="D49">
+        <v>176.17978600000001</v>
+      </c>
+      <c r="E49">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="F49">
+        <v>0.310157060623168</v>
+      </c>
+      <c r="I49" s="4">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>0.27717193441276999</v>
+      </c>
+      <c r="K49">
+        <v>174.65508700000001</v>
+      </c>
+      <c r="L49">
+        <v>0.281962252319643</v>
+      </c>
+      <c r="M49">
+        <v>0.53035449981689398</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <f>(C45+C46+C47+C48+C49)/5</f>
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:F51" si="3">(D45+D46+D47+D48+D49)/5</f>
+        <v>176.1674682</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>0.2871943512207028</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <f>(J46+J45+J47+J48+J49)/5</f>
+        <v>0.27717193441276999</v>
+      </c>
+      <c r="K51">
+        <f>(K46+K45+K47+K48+K49)/5</f>
+        <v>174.66715440000002</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ref="L51:M51" si="4">(L45+L46+L47+L48+L49)/5</f>
+        <v>0.28175968463552581</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>0.51988921165466284</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="D52">
+        <v>176.125281</v>
+      </c>
+      <c r="E52">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="F52">
+        <v>0.238153</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>0.27717193441276999</v>
+      </c>
+      <c r="K52">
+        <v>174.65281899999999</v>
+      </c>
+      <c r="L52">
+        <v>0.2823769694728</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.3970627784729</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="D53">
+        <v>176.19539499999999</v>
+      </c>
+      <c r="E53">
+        <v>0.40164977331882401</v>
+      </c>
+      <c r="F53">
+        <v>0.39051985740661599</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53">
+        <v>0.27717193441276999</v>
+      </c>
+      <c r="K53" s="3">
+        <v>174.69269199999999</v>
+      </c>
+      <c r="L53">
+        <v>0.280695162915646</v>
+      </c>
+      <c r="M53">
+        <v>0.71456456184387196</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="D59" s="3">
+        <v>274.85442599999999</v>
+      </c>
+      <c r="E59">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="F59">
+        <v>0.40941905975341703</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="K59" s="3">
+        <v>274.840913</v>
+      </c>
+      <c r="L59">
+        <v>0.27310972532382999</v>
+      </c>
+      <c r="M59">
+        <v>1.0993084907531701</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="D60">
+        <v>274.91579000000002</v>
+      </c>
+      <c r="E60">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="F60">
+        <v>0.40048265457153298</v>
+      </c>
+      <c r="I60" s="4">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="K60">
+        <v>274.72737699999999</v>
+      </c>
+      <c r="L60">
+        <v>0.26985242681611199</v>
+      </c>
+      <c r="M60">
+        <v>0.96977710723876898</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="4">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="D61" s="3">
+        <v>274.99933199999998</v>
+      </c>
+      <c r="E61">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.41053128242492598</v>
+      </c>
+      <c r="I61" s="4">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="K61" s="3">
+        <v>274.886347</v>
+      </c>
+      <c r="L61">
+        <v>0.27334211884281001</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1.20066738128662</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="4">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="D62">
+        <v>275.11790200000002</v>
+      </c>
+      <c r="E62">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="F62">
+        <v>0.470217704772949</v>
+      </c>
+      <c r="I62" s="4">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="K62">
+        <v>274.84562699999998</v>
+      </c>
+      <c r="L62">
+        <v>0.26930477635168099</v>
+      </c>
+      <c r="M62">
+        <v>1.0635960102081199</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="4">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="D63">
+        <v>275.15664199999998</v>
+      </c>
+      <c r="E63">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="F63">
+        <v>0.43078517913818298</v>
+      </c>
+      <c r="I63" s="4">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="K63">
+        <v>274.88622700000002</v>
+      </c>
+      <c r="L63">
+        <v>0.27013770475767102</v>
+      </c>
+      <c r="M63">
+        <v>0.56832242012023904</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <f>(C59+C60+C61+C62+C63)/5</f>
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:F65" si="5">(D59+D60+D61+D62+D63)/5</f>
+        <v>275.0088184</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="5"/>
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="5"/>
+        <v>0.42428717613220163</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <f>(J59+J60+J61+J62+J63)/5</f>
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65:M65" si="6">(K59+K60+K61+K62+K63)/5</f>
+        <v>274.83729819999996</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="6"/>
+        <v>0.27114935041842075</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="6"/>
+        <v>0.98033428192138372</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="D66" s="3">
+        <v>274.85442599999999</v>
+      </c>
+      <c r="E66">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="F66">
+        <v>0.40048265457153298</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="K66">
+        <v>274.72737699999999</v>
+      </c>
+      <c r="L66">
+        <v>0.27334211884281001</v>
+      </c>
+      <c r="M66">
+        <v>0.56832242012023904</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="D67">
+        <v>275.15664199999998</v>
+      </c>
+      <c r="E67">
+        <v>0.53715067051732601</v>
+      </c>
+      <c r="F67">
+        <v>0.470217704772949</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J67">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="K67" s="3">
+        <v>274.886347</v>
+      </c>
+      <c r="L67">
+        <v>0.26930477635168099</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1.20066738128662</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="4"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="D73" s="3">
+        <v>30.581585</v>
+      </c>
+      <c r="E73">
+        <v>0.17905807495117099</v>
+      </c>
+      <c r="F73">
+        <v>0.191844913478461</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="K73" s="3">
+        <v>30.568549000000001</v>
+      </c>
+      <c r="L73">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="M73">
+        <v>0.140705347061157</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="D74" s="5">
+        <v>30.933088999999999</v>
+      </c>
+      <c r="E74">
+        <v>0.18878372105674801</v>
+      </c>
+      <c r="F74">
+        <v>0.19719171524047799</v>
+      </c>
+      <c r="I74" s="4">
+        <v>2</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="K74">
+        <v>30.597935</v>
+      </c>
+      <c r="L74">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="M74">
+        <v>0.13003492355346599</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="4">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="D75" s="3">
+        <v>30.597435999999998</v>
+      </c>
+      <c r="E75">
+        <v>0.189146851489704</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.20027184486389099</v>
+      </c>
+      <c r="I75" s="4">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="K75" s="3">
+        <v>30.575875</v>
+      </c>
+      <c r="L75">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0.144615888595581</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76" s="4">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="D76">
+        <v>30.648641999999999</v>
+      </c>
+      <c r="E76">
+        <v>0.191816686867019</v>
+      </c>
+      <c r="F76">
+        <v>0.35035276412963801</v>
+      </c>
+      <c r="I76" s="4">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="K76">
+        <v>31.039587999999998</v>
+      </c>
+      <c r="L76">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="M76">
+        <v>0.120207071304321</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="4">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="D77">
+        <v>30.930921999999999</v>
+      </c>
+      <c r="E77">
+        <v>0.18820954747080099</v>
+      </c>
+      <c r="F77">
+        <v>0.19026017189025801</v>
+      </c>
+      <c r="I77" s="4">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="K77">
+        <v>30.596755000000002</v>
+      </c>
+      <c r="L77">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="M77">
+        <v>0.11153984069824199</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <f>(C73+C74+C75+C76+C77)/5</f>
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79:F79" si="7">(D73+D74+D75+D76+D77)/5</f>
+        <v>30.738334800000001</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>0.18740297636708861</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="7"/>
+        <v>0.22598428192054518</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79">
+        <f>(J73+J74+J75+J76+J77)/5</f>
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ref="K79:M79" si="8">(K73+K74+K75+K76+K77)/5</f>
+        <v>30.675740399999995</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="8"/>
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="8"/>
+        <v>0.12942061424255341</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="D80" s="3">
+        <v>30.581585</v>
+      </c>
+      <c r="E80">
+        <v>0.191816686867019</v>
+      </c>
+      <c r="F80">
+        <v>0.19026017189025801</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="K80" s="3">
+        <v>30.568549000000001</v>
+      </c>
+      <c r="L80">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="M80">
+        <v>0.11153984069824199</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="D81" s="5">
+        <v>30.933088999999999</v>
+      </c>
+      <c r="E81">
+        <v>0.17905807495117099</v>
+      </c>
+      <c r="F81">
+        <v>0.35035276412963801</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="K81">
+        <v>31.039587999999998</v>
+      </c>
+      <c r="L81">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="M81">
+        <v>0.140705347061157</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="B84" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="B85" s="4"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="B86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87" s="4">
+        <v>1</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.177431645860958</v>
+      </c>
+      <c r="D87" s="3">
+        <v>478.77499999999998</v>
+      </c>
+      <c r="E87">
+        <v>0.174382487199672</v>
+      </c>
+      <c r="F87">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0.17634227696242399</v>
+      </c>
+      <c r="K87" s="3">
+        <v>478.28100000000001</v>
+      </c>
+      <c r="L87">
+        <v>0.16463829453223799</v>
+      </c>
+      <c r="M87">
+        <v>2.4896476268768302</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13">
+      <c r="B88" s="4">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.182943880166445</v>
+      </c>
+      <c r="D88" s="5">
+        <v>478.41800000000001</v>
+      </c>
+      <c r="E88">
+        <v>0.174566896475365</v>
+      </c>
+      <c r="F88">
+        <v>2.9184091091156001</v>
+      </c>
+      <c r="I88" s="4">
+        <v>2</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.176750376454405</v>
+      </c>
+      <c r="K88" s="5">
+        <v>478.904</v>
+      </c>
+      <c r="L88">
+        <v>0.159869108076203</v>
+      </c>
+      <c r="M88">
+        <v>1.9917020797729399</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="B89" s="4">
+        <v>3</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.18386191731594501</v>
+      </c>
+      <c r="D89" s="5">
+        <v>477.70800000000003</v>
+      </c>
+      <c r="E89">
+        <v>0.17272960491386</v>
+      </c>
+      <c r="F89" s="2">
+        <v>4.1269891262054399</v>
+      </c>
+      <c r="I89" s="4">
+        <v>3</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0.17673930567913801</v>
+      </c>
+      <c r="K89" s="5">
+        <v>477.69900000000001</v>
+      </c>
+      <c r="L89">
+        <v>0.16461061387616399</v>
+      </c>
+      <c r="M89" s="2">
+        <v>2.3597958087921098</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90" s="4">
+        <v>4</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.190207358542545</v>
+      </c>
+      <c r="D90">
+        <v>477.24299999999999</v>
+      </c>
+      <c r="E90">
+        <v>0.16992873729012301</v>
+      </c>
+      <c r="F90">
+        <v>3.04515027999877</v>
+      </c>
+      <c r="I90" s="4">
+        <v>4</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0.177272019030142</v>
+      </c>
+      <c r="K90">
+        <v>477.19600000000003</v>
+      </c>
+      <c r="L90">
+        <v>0.164318382588138</v>
+      </c>
+      <c r="M90">
+        <v>2.29759216308593</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13">
+      <c r="B91" s="4">
+        <v>5</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.17932066944424799</v>
+      </c>
+      <c r="D91">
+        <v>477.32299999999998</v>
+      </c>
+      <c r="E91">
+        <v>0.17720702660148999</v>
+      </c>
+      <c r="F91">
+        <v>3.98979640007019</v>
+      </c>
+      <c r="I91" s="4">
+        <v>5</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0.17701880114272001</v>
+      </c>
+      <c r="K91">
+        <v>477.197</v>
+      </c>
+      <c r="L91">
+        <v>0.15843902759682099</v>
+      </c>
+      <c r="M91">
+        <v>2.01790022850036</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" s="4"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="B93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:D93" si="9">(C87+C88+C89+C90+C91)/5</f>
+        <v>0.1827530942660282</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="9"/>
+        <v>477.89340000000004</v>
+      </c>
+      <c r="E93">
+        <f>(E87+E88+E89+E90+E91)/5</f>
+        <v>0.17376295049610202</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ref="E93:F93" si="10">(F87+F88+F89+F90+F91)/5</f>
+        <v>3.2932689830779998</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ref="J93:M93" si="11">(J87+J88+J89+J90+J91)/5</f>
+        <v>0.17682455585376583</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="11"/>
+        <v>477.85540000000003</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="11"/>
+        <v>0.16237508533391282</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="11"/>
+        <v>2.2313275814056341</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13">
+      <c r="B94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.190207358542545</v>
+      </c>
+      <c r="D94">
+        <v>477.24299999999999</v>
+      </c>
+      <c r="E94">
+        <v>0.17720702660148999</v>
+      </c>
+      <c r="F94">
+        <v>3.98979640007019</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0.177272019030142</v>
+      </c>
+      <c r="K94">
+        <v>477.19600000000003</v>
+      </c>
+      <c r="L94">
+        <v>0.16463829453223799</v>
+      </c>
+      <c r="M94">
+        <v>2.4896476268768302</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="B95" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.177431645860958</v>
+      </c>
+      <c r="D95" s="3">
+        <v>478.77499999999998</v>
+      </c>
+      <c r="E95">
+        <v>0.16992873729012301</v>
+      </c>
+      <c r="F95">
+        <v>3.04515027999877</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0.17634227696242399</v>
+      </c>
+      <c r="K95" s="3">
+        <v>478.28100000000001</v>
+      </c>
+      <c r="L95">
+        <v>0.15843902759682099</v>
+      </c>
+      <c r="M95">
+        <v>2.01790022850036</v>
       </c>
     </row>
   </sheetData>
@@ -1787,10 +3252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E43CCF5-DB9E-437D-9806-CC608D4E2CC7}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:M26"/>
+    <sheetView topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1800,12 +3265,12 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1816,13 +3281,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -1950,24 +3415,39 @@
       </c>
     </row>
     <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.5608152531229406E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>317.67599999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.18285667324128799</v>
+      </c>
+      <c r="E15">
+        <v>126.98006629943799</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
     <row r="18" spans="1:13">
       <c r="G18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1977,10 +3457,10 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1991,29 +3471,29 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4"/>
       <c r="G21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="J21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="M21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2249,21 +3729,60 @@
       <c r="C30" s="5">
         <v>711202</v>
       </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.37343852728468102</v>
+      </c>
+      <c r="I30" s="5">
+        <v>605.47327995300202</v>
+      </c>
+      <c r="J30">
+        <v>118</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.35527613412228698</v>
+      </c>
+      <c r="L30" s="5">
+        <v>675.79770088195801</v>
+      </c>
+      <c r="M30" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31">
+        <v>0.374013806706114</v>
+      </c>
+      <c r="C31">
+        <v>917493</v>
+      </c>
+      <c r="E31">
+        <f>_xlfn.VAR.P(B22:B26)</f>
+        <v>1.1249854653738877E-4</v>
+      </c>
     </row>
     <row r="33" spans="1:13">
       <c r="G33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2273,10 +3792,10 @@
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2287,29 +3806,29 @@
         <v>21</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="4"/>
       <c r="G36" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="J36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="M36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2522,6 +4041,9 @@
       <c r="C44">
         <v>564575</v>
       </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
       <c r="G44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2542,6 +4064,42 @@
       </c>
       <c r="M44">
         <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45">
+        <v>0.39686061801446398</v>
+      </c>
+      <c r="C45">
+        <v>570063</v>
+      </c>
+      <c r="E45">
+        <f>_xlfn.VAR.P(B36:B40)</f>
+        <v>1.1514402409656928E-4</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.39414858645627798</v>
+      </c>
+      <c r="I45" s="5">
+        <v>310.42671203613202</v>
+      </c>
+      <c r="J45" s="5">
+        <v>51</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.404421433267587</v>
+      </c>
+      <c r="L45" s="5">
+        <v>265.118598937988</v>
+      </c>
+      <c r="M45">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2552,40 +4110,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549BBE4-E966-445E-A6DA-79199C4FB817}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
@@ -2593,7 +4151,7 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
@@ -2624,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="16"/>
     </row>
@@ -2656,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="8">
         <f>COUNT(C4:C8)</f>
@@ -2691,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="10">
         <f>MIN(F9:G9)</f>
@@ -2726,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="10">
         <f>(J5*(J5+1))/4</f>
@@ -2761,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="10">
         <f>SQRT((J5*(J5+1)*(2*J5+1))/24)</f>
@@ -2778,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="13">
         <f>(J6-J7)/J8</f>
@@ -2797,10 +4355,10 @@
         <v>9</v>
       </c>
       <c r="I12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
         <v>48</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1">
@@ -2831,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="16"/>
     </row>
@@ -2863,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="8">
         <v>0</v>
@@ -2897,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="10">
         <f>MIN(F18:G18)</f>
@@ -2932,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="10">
         <f>(J14*(J14+1))/4</f>
@@ -2967,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="10">
         <f>SQRT((J14*(J14+1)*(2*J14+1))/24)</f>
@@ -2976,7 +4534,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="I18" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" s="13">
         <v>0</v>
@@ -2991,7 +4549,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1">
@@ -2999,7 +4557,7 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1">
@@ -3007,11 +4565,11 @@
         <v>0.14101404647253701</v>
       </c>
       <c r="B23">
-        <v>0.14222525333939501</v>
+        <v>0.142869227960678</v>
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C27" si="9">ABS(A23-B23)</f>
-        <v>1.2112068668579945E-3</v>
+        <v>1.8551814881409834E-3</v>
       </c>
       <c r="D23">
         <f>SIGN(A23-B23)</f>
@@ -3019,7 +4577,7 @@
       </c>
       <c r="E23">
         <f>IF(C23 &gt; 0,(_xlfn.RANK.AVG(C23,$C$23:$C$27,1)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <f>IF(D23 &gt; 0, E23, 0)</f>
@@ -3027,10 +4585,10 @@
       </c>
       <c r="G23">
         <f>IF(D23 &lt; 0, E23, 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" s="16"/>
     </row>
@@ -3039,11 +4597,11 @@
         <v>0.14705974745282799</v>
       </c>
       <c r="B24">
-        <v>0.13924208292861001</v>
+        <v>0.13582587609619601</v>
       </c>
       <c r="C24">
         <f t="shared" si="9"/>
-        <v>7.8176645242179765E-3</v>
+        <v>1.123387135663198E-2</v>
       </c>
       <c r="D24">
         <f t="shared" ref="D24:D27" si="10">SIGN(A24-B24)</f>
@@ -3062,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24" s="8">
         <f>COUNT(C23:C27)</f>
@@ -3074,11 +4632,11 @@
         <v>0.14197546172870101</v>
       </c>
       <c r="B25">
-        <v>0.13784115568231101</v>
+        <v>0.14158720317440601</v>
       </c>
       <c r="C25">
         <f t="shared" si="9"/>
-        <v>4.1343060463900072E-3</v>
+        <v>3.8825855429500122E-4</v>
       </c>
       <c r="D25">
         <f t="shared" si="10"/>
@@ -3086,22 +4644,22 @@
       </c>
       <c r="E25">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="10">
         <f>MIN(F28:G28)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3109,11 +4667,11 @@
         <v>0.145805967167489</v>
       </c>
       <c r="B26">
-        <v>0.13908928706746301</v>
+        <v>0.13769979539959001</v>
       </c>
       <c r="C26">
         <f t="shared" si="9"/>
-        <v>6.7166801000259901E-3</v>
+        <v>8.1061717678989897E-3</v>
       </c>
       <c r="D26">
         <f t="shared" si="10"/>
@@ -3132,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26" s="10">
         <f>(J24*(J24+1))/4</f>
@@ -3144,11 +4702,11 @@
         <v>0.142007150680968</v>
       </c>
       <c r="B27">
-        <v>0.138744841934128</v>
+        <v>0.13778976446841701</v>
       </c>
       <c r="C27">
         <f t="shared" si="9"/>
-        <v>3.2623087468399981E-3</v>
+        <v>4.2173862125509942E-3</v>
       </c>
       <c r="D27">
         <f t="shared" si="10"/>
@@ -3156,18 +4714,18 @@
       </c>
       <c r="E27">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J27" s="10">
         <f>SQRT((J24*(J24+1)*(2*J24+1))/24)</f>
@@ -3177,30 +4735,30 @@
     <row r="28" spans="1:10">
       <c r="F28">
         <f>SUM(F23:F27)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28">
         <f>SUM(G23:G27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" s="13">
         <f>(J25-J26)/J27</f>
-        <v>-1.7529196424044293</v>
+        <v>-1.4832396974191326</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1">
       <c r="I29" s="17" t="str">
         <f>IF(ABS(J28)&gt;1.65,"Signifikanter Unterschied", "Kein Signifikanter Unterschied")</f>
-        <v>Signifikanter Unterschied</v>
+        <v>Kein Signifikanter Unterschied</v>
       </c>
       <c r="J29" s="18"/>
     </row>
     <row r="31" spans="1:10">
       <c r="I31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" thickBot="1">
@@ -3208,7 +4766,7 @@
         <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1">
@@ -3216,11 +4774,11 @@
         <v>0.10792172637462601</v>
       </c>
       <c r="B33">
-        <v>0.18601815293085999</v>
+        <v>0.179092357041815</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33:C37" si="14">ABS(A33-B33)</f>
-        <v>7.8096426556233986E-2</v>
+        <v>7.1170630667188997E-2</v>
       </c>
       <c r="D33">
         <f>SIGN(A33-B33)</f>
@@ -3228,7 +4786,7 @@
       </c>
       <c r="E33">
         <f>IF(C33 &gt; 0,(_xlfn.RANK.AVG(C33,$C$33:$C$37,1)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <f>IF(D33 &gt; 0, E33, 0)</f>
@@ -3236,10 +4794,10 @@
       </c>
       <c r="G33">
         <f>IF(D33 &lt; 0, E33, 0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" s="16"/>
     </row>
@@ -3248,11 +4806,11 @@
         <v>0.109469801636266</v>
       </c>
       <c r="B34">
-        <v>0.182707904795158</v>
+        <v>0.181036439217901</v>
       </c>
       <c r="C34">
         <f t="shared" si="14"/>
-        <v>7.3238103158891996E-2</v>
+        <v>7.1566637581634993E-2</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D37" si="15">SIGN(A34-B34)</f>
@@ -3271,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J34" s="8">
         <f>COUNT(C33:C37)</f>
@@ -3283,11 +4841,11 @@
         <v>0.10626692673511801</v>
       </c>
       <c r="B35">
-        <v>0.179079684619802</v>
+        <v>0.181442397658093</v>
       </c>
       <c r="C35">
         <f t="shared" si="14"/>
-        <v>7.2812757884683998E-2</v>
+        <v>7.5175470922974996E-2</v>
       </c>
       <c r="D35">
         <f t="shared" si="15"/>
@@ -3295,7 +4853,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <f t="shared" si="17"/>
@@ -3303,10 +4861,10 @@
       </c>
       <c r="G35">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J35" s="10">
         <f>MIN(F38:G38)</f>
@@ -3318,11 +4876,11 @@
         <v>9.8952290033919699E-2</v>
       </c>
       <c r="B36">
-        <v>0.179599264676887</v>
+        <v>0.186726923107256</v>
       </c>
       <c r="C36">
         <f t="shared" si="14"/>
-        <v>8.0646974642967301E-2</v>
+        <v>8.77746330733363E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="15"/>
@@ -3341,7 +4899,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" s="10">
         <f>(J34*(J34+1))/4</f>
@@ -3353,11 +4911,11 @@
         <v>0.104244816853926</v>
       </c>
       <c r="B37">
-        <v>0.18094859621110701</v>
+        <v>0.180560357652673</v>
       </c>
       <c r="C37">
         <f t="shared" si="14"/>
-        <v>7.6703779357181007E-2</v>
+        <v>7.6315540798747E-2</v>
       </c>
       <c r="D37">
         <f t="shared" si="15"/>
@@ -3365,7 +4923,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37">
         <f>IF(D37 &gt; 0, E37, 0)</f>
@@ -3373,10 +4931,10 @@
       </c>
       <c r="G37">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J37" s="10">
         <f>SQRT((J34*(J34+1)*(2*J34+1))/24)</f>
@@ -3393,7 +4951,7 @@
         <v>15</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J38" s="13">
         <f>(J35-J36)/J37</f>
@@ -3409,7 +4967,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3417,11 +4975,11 @@
         <v>0.35879502135181801</v>
       </c>
       <c r="B43">
-        <v>0.36034064615088202</v>
+        <v>0.35983385798415102</v>
       </c>
       <c r="C43">
         <f t="shared" ref="C43:C47" si="19">ABS(A43-B43)</f>
-        <v>1.5456247990640049E-3</v>
+        <v>1.0388366323330067E-3</v>
       </c>
       <c r="D43">
         <f>SIGN(A43-B43)</f>
@@ -3440,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1">
@@ -3448,11 +5006,11 @@
         <v>0.357542298101787</v>
       </c>
       <c r="B44">
-        <v>0.36013733980215201</v>
+        <v>0.36059982666867502</v>
       </c>
       <c r="C44">
         <f t="shared" si="19"/>
-        <v>2.5950417003650084E-3</v>
+        <v>3.0575285668880126E-3</v>
       </c>
       <c r="D44">
         <f t="shared" ref="D44:D47" si="20">SIGN(A44-B44)</f>
@@ -3471,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1">
@@ -3479,11 +5037,11 @@
         <v>0.34487984563444701</v>
       </c>
       <c r="B45">
-        <v>0.35948219651199997</v>
+        <v>0.36012548084561002</v>
       </c>
       <c r="C45">
         <f t="shared" si="19"/>
-        <v>1.4602350877552961E-2</v>
+        <v>1.5245635211163011E-2</v>
       </c>
       <c r="D45">
         <f t="shared" si="20"/>
@@ -3502,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J45" s="16"/>
     </row>
@@ -3511,11 +5069,11 @@
         <v>0.35217282030749297</v>
       </c>
       <c r="B46">
-        <v>0.36046012134426603</v>
+        <v>0.36029969580818699</v>
       </c>
       <c r="C46">
         <f t="shared" si="19"/>
-        <v>8.2873010367730537E-3</v>
+        <v>8.1268755006940196E-3</v>
       </c>
       <c r="D46">
         <f t="shared" si="20"/>
@@ -3534,11 +5092,11 @@
         <v>4</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J46" s="8">
-        <f>COUNT(C45:C49)</f>
-        <v>3</v>
+        <f>COUNT(C43:C47)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3546,11 +5104,11 @@
         <v>0.35444979966871398</v>
       </c>
       <c r="B47">
-        <v>0.35914419759267502</v>
+        <v>0.35976463720257701</v>
       </c>
       <c r="C47">
         <f t="shared" si="19"/>
-        <v>4.6943979239610356E-3</v>
+        <v>5.314837533863026E-3</v>
       </c>
       <c r="D47">
         <f t="shared" si="20"/>
@@ -3569,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J47" s="10">
         <f>MIN(F50:G50)</f>
@@ -3586,40 +5144,1083 @@
         <v>15</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J48" s="10">
         <f>(J46*(J46+1))/4</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="I49" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J49" s="10">
         <f>SQRT((J46*(J46+1)*(2*J46+1))/24)</f>
-        <v>1.8708286933869707</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10">
+        <v>3.7080992435478315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="I50" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J50" s="13">
         <f>(J47-J48)/J49</f>
-        <v>-1.6035674514745464</v>
-      </c>
-    </row>
-    <row r="51" spans="9:10" ht="15" thickBot="1">
+        <v>-2.0225995873897262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" thickBot="1">
       <c r="I51" s="17" t="str">
         <f>IF(ABS(J50)&gt;1.65,"Signifikanter Unterschied", "Kein Signifikanter Unterschied")</f>
+        <v>Signifikanter Unterschied</v>
+      </c>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="5">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="B55">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:C72" si="24">ABS(A55-B55)</f>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f>SIGN(A55-B55)</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>IF(C55 &gt; 0,(_xlfn.RANK.AVG(C55,$C$43:$C$47,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>IF(D55 &gt; 0, E55, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>IF(D55 &lt; 0, E55, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" thickBot="1">
+      <c r="A56" s="1">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="B56">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:D72" si="25">SIGN(A56-B56)</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:E59" si="26">IF(C56 &gt; 0,(_xlfn.RANK.AVG(C56,$C$43:$C$47,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56:F59" si="27">IF(D56 &gt; 0, E56, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ref="G56:G59" si="28">IF(D56 &lt; 0, E56, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" thickBot="1">
+      <c r="A57">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="B57">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="B58">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J58" s="8">
+        <f>COUNT(C57:C61)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="B59">
+        <v>0.32701047812340001</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" s="10">
+        <f>MIN(F62:G62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="I60" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" s="10">
+        <f>(J58*(J58+1))/4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="I61" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" s="10">
+        <f>SQRT((J58*(J58+1)*(2*J58+1))/24)</f>
+        <v>1.8708286933869707</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="I62" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" s="13">
+        <f>(J59-J60)/J61</f>
+        <v>-1.6035674514745464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" thickBot="1">
+      <c r="I63" s="17" t="str">
+        <f>IF(ABS(J62)&gt;1.65,"Signifikanter Unterschied", "Kein Signifikanter Unterschied")</f>
         <v>Kein Signifikanter Unterschied</v>
       </c>
-      <c r="J51" s="18"/>
+      <c r="J63" s="18"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="I66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" thickBot="1">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" thickBot="1">
+      <c r="A68" s="5">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="B68">
+        <v>0.17905807495117099</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="24"/>
+        <v>2.464767706606702E-2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <f>IF(C68 &gt; 0,(_xlfn.RANK.AVG(C68,$C$68:$C$72,1)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <f>IF(D68 &gt; 0, E68, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <f>IF(D68 &lt; 0, E68, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="B69">
+        <v>0.18878372105674801</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="24"/>
+        <v>1.4922030960489996E-2</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:E72" si="29">IF(C69 &gt; 0,(_xlfn.RANK.AVG(C69,$C$68:$C$72,1)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:F72" si="30">IF(D69 &gt; 0, E69, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G72" si="31">IF(D69 &lt; 0, E69, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J69" s="8">
+        <f>COUNT(C68:C72)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="B70">
+        <v>0.189146851489704</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="24"/>
+        <v>1.4558900527534002E-2</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J70" s="10">
+        <f>MIN(F73:G73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="B71">
+        <v>0.191816686867019</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="24"/>
+        <v>1.1889065150219008E-2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J71" s="10">
+        <f>(J69*(J69+1))/4</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>0.20370575201723801</v>
+      </c>
+      <c r="B72">
+        <v>0.18820954747080099</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="24"/>
+        <v>1.549620454643702E-2</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J72" s="10">
+        <f>SQRT((J69*(J69+1)*(2*J69+1))/24)</f>
+        <v>3.7080992435478315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="F73">
+        <f>SUM(F68:F72)</f>
+        <v>15</v>
+      </c>
+      <c r="G73">
+        <f>SUM(G68:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J73" s="13">
+        <f>(J70-J71)/J72</f>
+        <v>-2.0225995873897262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" thickBot="1">
+      <c r="I74" s="17" t="str">
+        <f>IF(ABS(J73)&gt;1.65,"Signifikanter Unterschied", "Kein Signifikanter Unterschied")</f>
+        <v>Signifikanter Unterschied</v>
+      </c>
+      <c r="J74" s="18"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="I77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" thickBot="1">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" thickBot="1">
+      <c r="A79" s="5">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="B79">
+        <v>0.27310972532382999</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79:C83" si="32">ABS(A79-B79)</f>
+        <v>3.0671465400129994E-3</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79:D83" si="33">SIGN(A79-B79)</f>
+        <v>-1</v>
+      </c>
+      <c r="E79">
+        <f>IF(C79 &gt; 0,(_xlfn.RANK.AVG(C79,$C$79:$C$83,1)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <f>IF(D79 &gt; 0, E79, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f>IF(D79 &lt; 0, E79, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J79" s="16"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="B80">
+        <v>0.26985242681611199</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="32"/>
+        <v>1.9015196770499898E-4</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80:E83" si="34">IF(C80 &gt; 0,(_xlfn.RANK.AVG(C80,$C$79:$C$83,1)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80:F83" si="35">IF(D80 &gt; 0, E80, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ref="G80:G83" si="36">IF(D80 &lt; 0, E80, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" s="8">
+        <f>COUNT(C79:C83)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="B81">
+        <v>0.27334211884281001</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="32"/>
+        <v>3.2995400589930224E-3</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J81" s="10">
+        <f>MIN(F84:G84)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="B82">
+        <v>0.26930477635168099</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="32"/>
+        <v>7.3780243213600327E-4</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J82" s="10">
+        <f>(J80*(J80+1))/4</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>0.27004257878381699</v>
+      </c>
+      <c r="B83">
+        <v>0.27013770475767102</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="32"/>
+        <v>9.5125973854026658E-5</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J83" s="10">
+        <f>SQRT((J80*(J80+1)*(2*J80+1))/24)</f>
+        <v>3.7080992435478315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="F84">
+        <f>SUM(F79:F83)</f>
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <f>SUM(G79:G83)</f>
+        <v>10</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J84" s="13">
+        <f>(J81-J82)/J83</f>
+        <v>-0.67419986246324204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15" thickBot="1">
+      <c r="I85" s="17" t="str">
+        <f>IF(ABS(J84)&gt;1.65,"Signifikanter Unterschied", "Kein Signifikanter Unterschied")</f>
+        <v>Kein Signifikanter Unterschied</v>
+      </c>
+      <c r="J85" s="18"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="I90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" thickBot="1">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+      <c r="I91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" thickBot="1">
+      <c r="A92" s="5">
+        <v>0.177431645860958</v>
+      </c>
+      <c r="B92">
+        <v>0.174382487199672</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ref="C92:C96" si="37">ABS(A92-B92)</f>
+        <v>3.0491586612859944E-3</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ref="D92:D96" si="38">SIGN(A92-B92)</f>
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <f>IF(C92 &gt; 0,(_xlfn.RANK.AVG(C92,$C$92:$C$96,1)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <f>IF(D92 &gt; 0, E92, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <f>IF(D92 &lt; 0, E92, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" s="16"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>0.182943880166445</v>
+      </c>
+      <c r="B93">
+        <v>0.174566896475365</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="37"/>
+        <v>8.3769836910800033E-3</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ref="E93:E96" si="39">IF(C93 &gt; 0,(_xlfn.RANK.AVG(C93,$C$92:$C$96,1)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ref="F93:F96" si="40">IF(D93 &gt; 0, E93, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ref="G93:G96" si="41">IF(D93 &lt; 0, E93, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J93" s="8">
+        <f>COUNT(C92:C96)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="5">
+        <v>0.18386191731594501</v>
+      </c>
+      <c r="B94">
+        <v>0.17272960491386</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="37"/>
+        <v>1.1132312402085009E-2</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J94" s="10">
+        <f>MIN(F97:G97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="5">
+        <v>0.190207358542545</v>
+      </c>
+      <c r="B95">
+        <v>0.16992873729012301</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="37"/>
+        <v>2.0278621252421997E-2</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J95" s="10">
+        <f>(J93*(J93+1))/4</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="5">
+        <v>0.17932066944424799</v>
+      </c>
+      <c r="B96">
+        <v>0.17720702660148999</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="37"/>
+        <v>2.1136428427580012E-3</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J96" s="10">
+        <f>SQRT((J93*(J93+1)*(2*J93+1))/24)</f>
+        <v>3.7080992435478315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="F97">
+        <f>SUM(F92:F96)</f>
+        <v>15</v>
+      </c>
+      <c r="G97">
+        <f>SUM(G92:G96)</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J97" s="13">
+        <f>(J94-J95)/J96</f>
+        <v>-2.0225995873897262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1">
+      <c r="I98" s="17" t="str">
+        <f>IF(ABS(J97)&gt;1.65,"Signifikanter Unterschied", "Kein Signifikanter Unterschied")</f>
+        <v>Signifikanter Unterschied</v>
+      </c>
+      <c r="J98" s="18"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="I101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15" thickBot="1">
+      <c r="A102" t="s">
+        <v>87</v>
+      </c>
+      <c r="I102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15" thickBot="1">
+      <c r="A103" s="5">
+        <v>0.17634227696242399</v>
+      </c>
+      <c r="B103">
+        <v>0.16463829453223799</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:C107" si="42">ABS(A103-B103)</f>
+        <v>1.1703982430186E-2</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ref="D103:D107" si="43">SIGN(A103-B103)</f>
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <f>IF(C103 &gt; 0,(_xlfn.RANK.AVG(C103,$C$103:$C$107,1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <f>IF(D103 &gt; 0, E103, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <f>IF(D103 &lt; 0, E103, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J103" s="16"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1">
+        <v>0.176750376454405</v>
+      </c>
+      <c r="B104">
+        <v>0.159869108076203</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="42"/>
+        <v>1.6881268378202002E-2</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ref="E104:E107" si="44">IF(C104 &gt; 0,(_xlfn.RANK.AVG(C104,$C$103:$C$107,1)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ref="F104:F107" si="45">IF(D104 &gt; 0, E104, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <f t="shared" ref="G104:G107" si="46">IF(D104 &lt; 0, E104, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J104" s="8">
+        <f>COUNT(C103:C107)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="5">
+        <v>0.17673930567913801</v>
+      </c>
+      <c r="B105">
+        <v>0.16461061387616399</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="42"/>
+        <v>1.2128691802974018E-2</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J105" s="10">
+        <f>MIN(F108:G108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="5">
+        <v>0.177272019030142</v>
+      </c>
+      <c r="B106">
+        <v>0.164318382588138</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="42"/>
+        <v>1.2953636442004007E-2</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J106" s="10">
+        <f>(J104*(J104+1))/4</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="5">
+        <v>0.17701880114272001</v>
+      </c>
+      <c r="B107">
+        <v>0.15843902759682099</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="42"/>
+        <v>1.8579773545899014E-2</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J107" s="10">
+        <f>SQRT((J104*(J104+1)*(2*J104+1))/24)</f>
+        <v>3.7080992435478315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="F108">
+        <f>SUM(F103:F107)</f>
+        <v>15</v>
+      </c>
+      <c r="G108">
+        <f>SUM(G103:G107)</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J108" s="13">
+        <f>(J105-J106)/J107</f>
+        <v>-2.0225995873897262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15" thickBot="1">
+      <c r="I109" s="17" t="str">
+        <f>IF(ABS(J108)&gt;1.65,"Signifikanter Unterschied", "Kein Signifikanter Unterschied")</f>
+        <v>Signifikanter Unterschied</v>
+      </c>
+      <c r="J109" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I109:J109"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="I45:J45"/>
@@ -3630,44 +6231,90 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I74:J74"/>
   </mergeCells>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+      <formula>"Signifikanter Unterschied"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>"Kein Signifikanter Unterschied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"Signifikanter Unterschied"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>"Kein Signifikanter Unterschied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+      <formula>"Signifikanter Unterschied"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>"Kein Signifikanter Unterschied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"Signifikanter Unterschied"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Kein Signifikanter Unterschied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Signifikanter Unterschied"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Kein Signifikanter Unterschied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3679,7 +6326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4EBCB1-8165-4FC3-968F-73EE19C88AAF}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
@@ -3687,36 +6334,36 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
@@ -3747,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="16"/>
     </row>
@@ -3779,7 +6426,7 @@
         <v>4.5</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="8">
         <f>COUNT(C3:C7)</f>
@@ -3814,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" s="10">
         <f>MIN(F8:G8)</f>
@@ -3849,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="10">
         <f>(J4*(J4+1))/4</f>
@@ -3884,7 +6531,7 @@
         <v>4.5</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="10">
         <f>SQRT((J4*(J4+1)*(2*J4+1))/24)</f>
@@ -3901,7 +6548,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="13">
         <f>(J5-J6)/J7</f>
@@ -3917,36 +6564,36 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
       <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1">
@@ -3977,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="16"/>
     </row>
@@ -4009,7 +6656,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="8">
         <f>COUNT(C14:C18)</f>
@@ -4044,7 +6691,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="10">
         <f>MIN(F19:G19)</f>
@@ -4079,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="10">
         <f>(J15*(J15+1))/4</f>
@@ -4114,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="10">
         <f>SQRT((J15*(J15+1)*(2*J15+1))/24)</f>
@@ -4131,7 +6778,7 @@
         <v>9</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19" s="13">
         <f>(J16-J17)/J18</f>
@@ -4147,33 +6794,33 @@
     </row>
     <row r="22" spans="1:10">
       <c r="I22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>44</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1">
@@ -4204,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="16"/>
     </row>
@@ -4236,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25" s="8">
         <f>COUNT(C24:C28)</f>
@@ -4271,7 +6918,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" s="10">
         <f>MIN(F29:G29)</f>
@@ -4306,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" s="10">
         <f>(J25*(J25+1))/4</f>
@@ -4341,7 +6988,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J28" s="10">
         <f>SQRT((J25*(J25+1)*(2*J25+1))/24)</f>
@@ -4358,7 +7005,7 @@
         <v>14</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" s="13">
         <f>(J26-J27)/J28</f>
@@ -4374,33 +7021,33 @@
     </row>
     <row r="32" spans="1:10">
       <c r="I32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
         <v>43</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>44</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
         <v>45</v>
       </c>
-      <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1">
@@ -4431,7 +7078,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" s="16"/>
     </row>
@@ -4463,7 +7110,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35" s="8">
         <f>COUNT(C34:C38)</f>
@@ -4498,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J36" s="10">
         <f>MIN(F39:G39)</f>
@@ -4533,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" s="10">
         <f>(J35*(J35+1))/4</f>
@@ -4568,7 +7215,7 @@
         <v>5</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38" s="10">
         <f>SQRT((J35*(J35+1)*(2*J35+1))/24)</f>
@@ -4585,7 +7232,7 @@
         <v>13</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J39" s="13">
         <f>(J36-J37)/J38</f>
@@ -4601,33 +7248,33 @@
     </row>
     <row r="42" spans="1:10">
       <c r="I42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
         <v>43</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>44</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
         <v>45</v>
       </c>
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
       <c r="I43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1">
@@ -4658,10 +7305,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J44" s="16"/>
     </row>
@@ -4693,7 +7340,7 @@
         <v>3</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J45" s="8">
         <f>COUNT(C45:C48)</f>
@@ -4728,7 +7375,7 @@
         <v>2</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J46" s="10">
         <f>MIN(F49:G49)</f>
@@ -4763,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47" s="10">
         <f>(J45*(J45+1))/4</f>
@@ -4798,7 +7445,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J48" s="10">
         <f>SQRT((J45*(J45+1)*(2*J45+1))/24)</f>
@@ -4815,7 +7462,7 @@
         <v>9</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49" s="13">
         <f>(J46-J47)/J48</f>
@@ -4831,10 +7478,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" thickBot="1">
@@ -4842,25 +7489,25 @@
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" t="s">
         <v>43</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>44</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" t="s">
         <v>45</v>
       </c>
-      <c r="F53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
       <c r="I53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15" thickBot="1">
@@ -4891,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J54" s="16"/>
     </row>
@@ -4923,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J55" s="8">
         <f>COUNT(C54:C58)</f>
@@ -4958,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J56" s="10">
         <f>MIN(F59:G59)</f>
@@ -4993,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J57" s="10">
         <f>(J55*(J55+1))/4</f>
@@ -5028,7 +7675,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J58" s="10">
         <f>SQRT((J55*(J55+1)*(2*J55+1))/24)</f>
@@ -5045,7 +7692,7 @@
         <v>2</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J59" s="13">
         <f>(J56-J57)/J58</f>
@@ -5061,10 +7708,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1">
@@ -5072,25 +7719,25 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" t="s">
         <v>43</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>44</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" t="s">
         <v>45</v>
       </c>
-      <c r="F63" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" t="s">
-        <v>46</v>
-      </c>
       <c r="I63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1">
@@ -5121,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J64" s="16"/>
     </row>
@@ -5153,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J65" s="8">
         <f>COUNT(C65:C68)</f>
@@ -5188,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J66" s="10">
         <f>MIN(F69:G69)</f>
@@ -5223,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J67" s="10">
         <f>(J65*(J65+1))/4</f>
@@ -5258,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J68" s="10">
         <f>SQRT((J65*(J65+1)*(2*J65+1))/24)</f>
@@ -5275,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J69" s="13">
         <f>(J66-J67)/J68</f>
@@ -5307,58 +7954,58 @@
     <mergeCell ref="I40:J40"/>
   </mergeCells>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Kein Signifikanter Unterschied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Signifikanter Unterschied"</formula>
     </cfRule>
   </conditionalFormatting>
